--- a/BackTest/2020-01-19 BackTest SNT.xlsx
+++ b/BackTest/2020-01-19 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,22 +1804,19 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="J43" t="n">
         <v>11.75</v>
       </c>
-      <c r="K43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1972,26 +1841,23 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J44" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K44" t="n">
         <v>11.75</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2016,26 +1882,23 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J45" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K45" t="n">
         <v>11.75</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2060,26 +1923,15 @@
         <v>-241467.7833999996</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2104,26 +1956,15 @@
         <v>-244384.6770999996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,26 +1989,15 @@
         <v>-211374.0924999996</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2192,26 +2022,15 @@
         <v>-380936.1117999996</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K49" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2236,26 +2055,19 @@
         <v>-359755.4169999996</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="J50" t="n">
         <v>11.74</v>
       </c>
-      <c r="K50" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2280,26 +2092,21 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>11.74</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2326,22 +2133,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2368,22 +2172,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,26 +2203,15 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K54" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2454,24 +2238,13 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2496,24 +2269,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2538,24 +2302,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2582,22 +2337,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2624,22 +2370,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2666,22 +2403,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2706,24 +2434,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2750,22 +2469,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2790,24 +2500,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2834,22 +2535,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2876,22 +2568,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2918,22 +2601,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2960,22 +2634,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3000,24 +2665,15 @@
         <v>-339956.1777967982</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3042,24 +2698,15 @@
         <v>-588231.7849967983</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3084,24 +2731,15 @@
         <v>-588231.7849967983</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3128,22 +2766,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3168,24 +2797,15 @@
         <v>-594437.6425967983</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3212,22 +2832,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3254,22 +2865,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3296,22 +2898,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3338,22 +2931,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3380,22 +2964,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3420,24 +2995,15 @@
         <v>-388289.8538967982</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3462,24 +3028,15 @@
         <v>-388289.8538967982</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3506,22 +3063,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3548,22 +3096,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3590,22 +3129,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3632,22 +3162,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3674,22 +3195,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3716,22 +3228,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3758,22 +3261,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3800,22 +3294,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3842,22 +3327,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1.003510638297872</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3884,16 +3360,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3920,16 +3393,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3956,16 +3426,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3992,16 +3459,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4028,16 +3492,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,16 +3525,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4100,16 +3558,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4136,16 +3591,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4172,16 +3624,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4208,16 +3657,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4244,16 +3690,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4280,16 +3723,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4316,16 +3756,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,16 +3789,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4388,16 +3822,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4424,16 +3855,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4460,16 +3888,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4496,16 +3921,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4532,16 +3954,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4568,18 +3987,15 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest SNT.xlsx
+++ b/BackTest/2020-01-19 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,11 +1474,17 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.83</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1517,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1554,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1591,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1628,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1665,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1702,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1739,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1776,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1813,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,15 +1846,15 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,17 +1883,13 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1882,17 +1920,13 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1927,7 +1961,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +1998,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2035,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,7 +2072,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,15 +2105,15 @@
         <v>-359755.4169999996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2095,12 +2145,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.74</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2134,12 +2182,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.74</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2174,7 +2220,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,7 +2257,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2290,15 @@
         <v>-488748.9053999996</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2269,11 +2327,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2364,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2339,7 +2405,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,7 +2442,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2405,7 +2479,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2512,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2471,7 +2553,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2586,15 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2537,7 +2627,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2570,7 +2664,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2701,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2636,7 +2738,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2771,15 @@
         <v>-339956.1777967982</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2698,11 +2808,15 @@
         <v>-588231.7849967983</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2731,11 +2845,15 @@
         <v>-588231.7849967983</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2886,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2919,15 @@
         <v>-594437.6425967983</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,7 +2960,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2867,7 +2997,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2900,7 +3034,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2933,7 +3071,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,7 +3108,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +3141,15 @@
         <v>-388289.8538967982</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +3178,15 @@
         <v>-388289.8538967982</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,7 +3219,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,7 +3256,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3131,7 +3293,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3164,7 +3330,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3197,7 +3367,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3230,7 +3404,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3263,7 +3441,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3296,7 +3478,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3329,7 +3515,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3362,7 +3552,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +3585,16 @@
         <v>-755831.3628967981</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3457,7 +3653,7 @@
         <v>-750999.179596798</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3490,7 +3686,7 @@
         <v>-750999.179596798</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3523,7 +3719,7 @@
         <v>-751049.179596798</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3655,7 +3851,7 @@
         <v>-704599.179596798</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3787,7 +3983,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3853,7 +4049,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3919,7 +4115,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +4148,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +4181,7 @@
         <v>-611984.966096798</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3996,6 +4192,6 @@
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest SNT.xlsx
+++ b/BackTest/2020-01-19 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1130113.372281726</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1141838.2067</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1161838.2067</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1162010.4321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1474,17 +1474,11 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1702,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1739,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1813,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1887,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2105,15 +2035,15 @@
         <v>-359755.4169999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2145,10 +2075,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2182,10 +2114,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2220,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2257,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2368,11 +2286,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2319,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2352,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2385,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2516,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2550,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2701,11 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2616,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2649,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2682,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2715,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2748,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2923,11 +2781,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +2814,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2847,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3034,11 +2880,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +2913,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3108,11 +2946,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +2979,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +3012,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +3045,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3078,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +3111,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3144,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3177,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3210,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3243,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3276,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3309,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3342,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3585,16 +3371,14 @@
         <v>-755831.3628967981</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3653,7 +3437,7 @@
         <v>-750999.179596798</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3686,7 +3470,7 @@
         <v>-750999.179596798</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3719,7 +3503,7 @@
         <v>-751049.179596798</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3851,7 +3635,7 @@
         <v>-704599.179596798</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3983,7 +3767,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4049,7 +3833,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4115,7 +3899,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4148,7 +3932,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4181,7 +3965,7 @@
         <v>-611984.966096798</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4192,6 +3976,6 @@
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest SNT.xlsx
+++ b/BackTest/2020-01-19 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1130113.372281726</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1141838.2067</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1161838.2067</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1162010.4321</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1276,10 +1276,14 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11.82</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1313,19 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1354,19 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1408,10 +1428,14 @@
         <v>-1263277.5625</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.88</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1444,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1504,19 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1545,19 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1586,19 @@
         <v>-246048.5404999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1627,19 @@
         <v>-246048.5404999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1671,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1710,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1827,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1863,19 @@
         <v>-190876.2649999996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1904,19 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1945,19 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2064,19 @@
         <v>-244384.6770999996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2105,19 @@
         <v>-211374.0924999996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,15 +2185,17 @@
         <v>-359755.4169999996</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>11.88</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2076,11 +2228,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>11.74</v>
+        <v>11.88</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2115,11 +2267,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>11.74</v>
+        <v>11.88</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2153,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2890,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2945,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2978,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3011,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3044,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3077,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3110,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3140,13 +3472,19 @@
         <v>-535925.4965967982</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>1.003417508417509</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3173,7 +3511,7 @@
         <v>-539597.1294967982</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3305,7 +3643,7 @@
         <v>-755831.3628967981</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3503,7 +3841,7 @@
         <v>-751049.179596798</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3767,7 +4105,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3899,7 +4237,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3965,7 +4303,7 @@
         <v>-611984.966096798</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest SNT.xlsx
+++ b/BackTest/2020-01-19 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>171518.4838</v>
       </c>
       <c r="G2" t="n">
-        <v>-958594.8883817266</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>0.0001</v>
       </c>
       <c r="G3" t="n">
-        <v>-958594.8883817266</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>171518.4839</v>
       </c>
       <c r="G4" t="n">
-        <v>-1130113.372281726</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>148.7703</v>
       </c>
       <c r="G5" t="n">
-        <v>-1129964.601981726</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>14170.43818172674</v>
       </c>
       <c r="G6" t="n">
-        <v>-1115794.1638</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>26044.0429</v>
       </c>
       <c r="G7" t="n">
-        <v>-1141838.2067</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>-1161838.2067</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>83.6121</v>
       </c>
       <c r="G9" t="n">
-        <v>-1161754.5946</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>526.5551</v>
       </c>
       <c r="G10" t="n">
-        <v>-1161754.5946</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>242.8339</v>
       </c>
       <c r="G11" t="n">
-        <v>-1161754.5946</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>109.3847</v>
       </c>
       <c r="G12" t="n">
-        <v>-1161754.5946</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>255.8375</v>
       </c>
       <c r="G13" t="n">
-        <v>-1162010.4321</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>72396.6937</v>
       </c>
       <c r="G14" t="n">
-        <v>-1234407.1258</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6161.8108</v>
       </c>
       <c r="G15" t="n">
-        <v>-1234407.1258</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>280</v>
       </c>
       <c r="G16" t="n">
-        <v>-1234407.1258</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>140</v>
       </c>
       <c r="G17" t="n">
-        <v>-1234547.1258</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>523.4959</v>
       </c>
       <c r="G18" t="n">
-        <v>-1234023.6299</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>220.4716</v>
       </c>
       <c r="G19" t="n">
-        <v>-1234244.1015</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>29.5284</v>
       </c>
       <c r="G20" t="n">
-        <v>-1234244.1015</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7609.8217</v>
       </c>
       <c r="G21" t="n">
-        <v>-1234244.1015</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>580</v>
       </c>
       <c r="G22" t="n">
-        <v>-1234244.1015</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2.8098</v>
       </c>
       <c r="G23" t="n">
-        <v>-1234244.1015</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>42000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1276244.1015</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>48125.3473</v>
       </c>
       <c r="G25" t="n">
-        <v>-1276244.1015</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5455.5614</v>
       </c>
       <c r="G26" t="n">
-        <v>-1276244.1015</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,22 +1193,15 @@
         <v>3184.3098</v>
       </c>
       <c r="G27" t="n">
-        <v>-1273059.7917</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1310,26 +1223,15 @@
         <v>4326.6294</v>
       </c>
       <c r="G28" t="n">
-        <v>-1273059.7917</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1351,26 +1253,15 @@
         <v>46269.8809</v>
       </c>
       <c r="G29" t="n">
-        <v>-1273059.7917</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1392,18 +1283,15 @@
         <v>894.6639</v>
       </c>
       <c r="G30" t="n">
-        <v>-1273059.7917</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1425,22 +1313,15 @@
         <v>9782.2292</v>
       </c>
       <c r="G31" t="n">
-        <v>-1263277.5625</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1462,24 +1343,15 @@
         <v>92.24809999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-1263369.8106</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1501,26 +1373,15 @@
         <v>1096021.833</v>
       </c>
       <c r="G33" t="n">
-        <v>-167347.9775999996</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1542,26 +1403,15 @@
         <v>50000</v>
       </c>
       <c r="G34" t="n">
-        <v>-167347.9775999996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1583,26 +1433,15 @@
         <v>78700.5629</v>
       </c>
       <c r="G35" t="n">
-        <v>-246048.5404999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1624,26 +1463,15 @@
         <v>103281.7897</v>
       </c>
       <c r="G36" t="n">
-        <v>-246048.5404999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1665,24 +1493,15 @@
         <v>169.2757</v>
       </c>
       <c r="G37" t="n">
-        <v>-246217.8161999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1704,24 +1523,15 @@
         <v>88107.8226</v>
       </c>
       <c r="G38" t="n">
-        <v>-158109.9935999996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,24 +1553,15 @@
         <v>1393</v>
       </c>
       <c r="G39" t="n">
-        <v>-159502.9935999996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1782,24 +1583,15 @@
         <v>31373.2714</v>
       </c>
       <c r="G40" t="n">
-        <v>-190876.2649999996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1821,24 +1613,15 @@
         <v>24996.1598</v>
       </c>
       <c r="G41" t="n">
-        <v>-190876.2649999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1860,26 +1643,15 @@
         <v>16658.5965</v>
       </c>
       <c r="G42" t="n">
-        <v>-190876.2649999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1901,26 +1673,15 @@
         <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>-192876.2649999996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1942,26 +1703,15 @@
         <v>14665.0673</v>
       </c>
       <c r="G44" t="n">
-        <v>-192876.2649999996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,24 +1733,15 @@
         <v>49736.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>-192876.2649999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2022,24 +1763,15 @@
         <v>48591.5184</v>
       </c>
       <c r="G46" t="n">
-        <v>-241467.7833999996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2061,26 +1793,15 @@
         <v>2916.8937</v>
       </c>
       <c r="G47" t="n">
-        <v>-244384.6770999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2102,26 +1823,15 @@
         <v>33010.5846</v>
       </c>
       <c r="G48" t="n">
-        <v>-211374.0924999996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2143,24 +1853,21 @@
         <v>169562.0193</v>
       </c>
       <c r="G49" t="n">
-        <v>-380936.1117999996</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2182,24 +1889,21 @@
         <v>21180.6948</v>
       </c>
       <c r="G50" t="n">
-        <v>-359755.4169999996</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2221,24 +1925,19 @@
         <v>129036.4884</v>
       </c>
       <c r="G51" t="n">
-        <v>-488791.9053999996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2260,24 +1959,19 @@
         <v>40825.5833</v>
       </c>
       <c r="G52" t="n">
-        <v>-488791.9053999996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2299,24 +1993,19 @@
         <v>57551</v>
       </c>
       <c r="G53" t="n">
-        <v>-488791.9053999996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2338,24 +2027,19 @@
         <v>28862</v>
       </c>
       <c r="G54" t="n">
-        <v>-488791.9053999996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2377,24 +2061,19 @@
         <v>43</v>
       </c>
       <c r="G55" t="n">
-        <v>-488748.9053999996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2416,24 +2095,19 @@
         <v>7523.1586</v>
       </c>
       <c r="G56" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2455,24 +2129,19 @@
         <v>35735.0038</v>
       </c>
       <c r="G57" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,24 +2163,19 @@
         <v>2018.2514</v>
       </c>
       <c r="G58" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2533,24 +2197,19 @@
         <v>3039.9119</v>
       </c>
       <c r="G59" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2572,24 +2231,19 @@
         <v>45347.6042</v>
       </c>
       <c r="G60" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2611,24 +2265,19 @@
         <v>2212.0624</v>
       </c>
       <c r="G61" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,24 +2299,19 @@
         <v>2101.4593</v>
       </c>
       <c r="G62" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2689,24 +2333,19 @@
         <v>14410.5438</v>
       </c>
       <c r="G63" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2728,24 +2367,19 @@
         <v>45489.1784</v>
       </c>
       <c r="G64" t="n">
-        <v>-496272.0639999996</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2767,24 +2401,19 @@
         <v>797.6691</v>
       </c>
       <c r="G65" t="n">
-        <v>-495474.3948999996</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2806,24 +2435,19 @@
         <v>160.0673967986521</v>
       </c>
       <c r="G66" t="n">
-        <v>-495634.4622967982</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2845,24 +2469,19 @@
         <v>4212.3</v>
       </c>
       <c r="G67" t="n">
-        <v>-495634.4622967982</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2884,24 +2503,19 @@
         <v>155678.2845</v>
       </c>
       <c r="G68" t="n">
-        <v>-339956.1777967982</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2923,24 +2537,19 @@
         <v>248275.6072</v>
       </c>
       <c r="G69" t="n">
-        <v>-588231.7849967983</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2962,24 +2571,19 @@
         <v>17134</v>
       </c>
       <c r="G70" t="n">
-        <v>-588231.7849967983</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3001,24 +2605,19 @@
         <v>9378.5002</v>
       </c>
       <c r="G71" t="n">
-        <v>-578853.2847967983</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,24 +2639,19 @@
         <v>15584.3578</v>
       </c>
       <c r="G72" t="n">
-        <v>-594437.6425967983</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3079,24 +2673,19 @@
         <v>52777.1897</v>
       </c>
       <c r="G73" t="n">
-        <v>-594437.6425967983</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3118,24 +2707,19 @@
         <v>225558.5406</v>
       </c>
       <c r="G74" t="n">
-        <v>-368879.1019967982</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3157,24 +2741,19 @@
         <v>19460.7519</v>
       </c>
       <c r="G75" t="n">
-        <v>-388339.8538967982</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3196,24 +2775,19 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-388289.8538967982</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3235,24 +2809,19 @@
         <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>-388339.8538967982</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3274,24 +2843,19 @@
         <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-388289.8538967982</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3313,24 +2877,17 @@
         <v>16597.2977</v>
       </c>
       <c r="G79" t="n">
-        <v>-388289.8538967982</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3352,24 +2909,15 @@
         <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>-388239.8538967982</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3391,24 +2939,15 @@
         <v>140392.3768</v>
       </c>
       <c r="G81" t="n">
-        <v>-528632.2306967982</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3430,24 +2969,15 @@
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>-528582.2306967982</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3469,24 +2999,15 @@
         <v>7343.2659</v>
       </c>
       <c r="G83" t="n">
-        <v>-535925.4965967982</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1.003417508417509</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3508,18 +3029,15 @@
         <v>3671.6329</v>
       </c>
       <c r="G84" t="n">
-        <v>-539597.1294967982</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3541,18 +3059,15 @@
         <v>211501.4606</v>
       </c>
       <c r="G85" t="n">
-        <v>-751098.5900967981</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3574,18 +3089,15 @@
         <v>104564.5437</v>
       </c>
       <c r="G86" t="n">
-        <v>-646534.0463967981</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3607,18 +3119,15 @@
         <v>3661.9875</v>
       </c>
       <c r="G87" t="n">
-        <v>-642872.0588967981</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3640,18 +3149,15 @@
         <v>112959.304</v>
       </c>
       <c r="G88" t="n">
-        <v>-755831.3628967981</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3673,18 +3179,15 @@
         <v>209340.115</v>
       </c>
       <c r="G89" t="n">
-        <v>-755831.3628967981</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3706,18 +3209,15 @@
         <v>164802.885</v>
       </c>
       <c r="G90" t="n">
-        <v>-755831.3628967981</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3739,18 +3239,15 @@
         <v>20395.9806</v>
       </c>
       <c r="G91" t="n">
-        <v>-755831.3628967981</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3772,18 +3269,15 @@
         <v>4832.1833</v>
       </c>
       <c r="G92" t="n">
-        <v>-750999.179596798</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3805,18 +3299,15 @@
         <v>185480.8593</v>
       </c>
       <c r="G93" t="n">
-        <v>-750999.179596798</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3838,18 +3329,15 @@
         <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>-751049.179596798</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3871,18 +3359,15 @@
         <v>88557.7959</v>
       </c>
       <c r="G95" t="n">
-        <v>-751049.179596798</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3904,18 +3389,15 @@
         <v>81702.01639999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-751049.179596798</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3937,18 +3419,15 @@
         <v>46500</v>
       </c>
       <c r="G97" t="n">
-        <v>-704549.179596798</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3970,18 +3449,15 @@
         <v>50</v>
       </c>
       <c r="G98" t="n">
-        <v>-704599.179596798</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4003,18 +3479,15 @@
         <v>68145.224</v>
       </c>
       <c r="G99" t="n">
-        <v>-636453.955596798</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4036,18 +3509,15 @@
         <v>41061.7166</v>
       </c>
       <c r="G100" t="n">
-        <v>-595392.2389967979</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4069,18 +3539,15 @@
         <v>32158.2477</v>
       </c>
       <c r="G101" t="n">
-        <v>-595392.2389967979</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4102,18 +3569,15 @@
         <v>16302.2285</v>
       </c>
       <c r="G102" t="n">
-        <v>-595392.2389967979</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4135,18 +3599,15 @@
         <v>16863.7678</v>
       </c>
       <c r="G103" t="n">
-        <v>-612256.006796798</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,18 +3629,15 @@
         <v>6556.6832</v>
       </c>
       <c r="G104" t="n">
-        <v>-605699.323596798</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4201,18 +3659,15 @@
         <v>50000</v>
       </c>
       <c r="G105" t="n">
-        <v>-605699.323596798</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4234,18 +3689,15 @@
         <v>4816.1596</v>
       </c>
       <c r="G106" t="n">
-        <v>-605699.323596798</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4267,18 +3719,15 @@
         <v>20827.7664</v>
       </c>
       <c r="G107" t="n">
-        <v>-605699.323596798</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4300,18 +3749,15 @@
         <v>6285.6425</v>
       </c>
       <c r="G108" t="n">
-        <v>-611984.966096798</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
